--- a/output_data/final_jax_fc.xlsx
+++ b/output_data/final_jax_fc.xlsx
@@ -70,6 +70,9 @@
     <t>11/17/2020</t>
   </si>
   <si>
+    <t>1/18/2021</t>
+  </si>
+  <si>
     <t>11/19/2020</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
   </si>
   <si>
     <t>12/30/2020</t>
-  </si>
-  <si>
-    <t>1/18/2021</t>
   </si>
   <si>
     <t>11/9/2020</t>
@@ -614,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -623,7 +623,7 @@
         <v>9119</v>
       </c>
       <c r="F6">
-        <v>36476</v>
+        <v>27357</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -649,7 +649,7 @@
         <v>9119</v>
       </c>
       <c r="F7">
-        <v>36476</v>
+        <v>27357</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -666,7 +666,7 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -675,7 +675,7 @@
         <v>9119</v>
       </c>
       <c r="F8">
-        <v>36476</v>
+        <v>27357</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -701,7 +701,7 @@
         <v>9119</v>
       </c>
       <c r="F9">
-        <v>36476</v>
+        <v>27357</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -718,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -727,7 +727,7 @@
         <v>9119</v>
       </c>
       <c r="F10">
-        <v>27357</v>
+        <v>36476</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -744,7 +744,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -753,7 +753,7 @@
         <v>9119</v>
       </c>
       <c r="F11">
-        <v>27357</v>
+        <v>36476</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -770,7 +770,7 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -779,7 +779,7 @@
         <v>9119</v>
       </c>
       <c r="F12">
-        <v>27357</v>
+        <v>36476</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -796,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -805,7 +805,7 @@
         <v>9119</v>
       </c>
       <c r="F13">
-        <v>27357</v>
+        <v>36476</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -1027,10 +1027,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -1039,7 +1039,7 @@
         <v>9119</v>
       </c>
       <c r="F22">
-        <v>36476</v>
+        <v>27357</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -1053,10 +1053,10 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -1065,7 +1065,7 @@
         <v>9119</v>
       </c>
       <c r="F23">
-        <v>36476</v>
+        <v>27357</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -1079,10 +1079,10 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1091,7 +1091,7 @@
         <v>9119</v>
       </c>
       <c r="F24">
-        <v>36476</v>
+        <v>27357</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -1105,10 +1105,10 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -1117,7 +1117,7 @@
         <v>9119</v>
       </c>
       <c r="F25">
-        <v>36476</v>
+        <v>27357</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -1131,10 +1131,10 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -1143,7 +1143,7 @@
         <v>9119</v>
       </c>
       <c r="F26">
-        <v>27357</v>
+        <v>36476</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1157,10 +1157,10 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -1169,7 +1169,7 @@
         <v>9119</v>
       </c>
       <c r="F27">
-        <v>27357</v>
+        <v>36476</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1183,10 +1183,10 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -1195,7 +1195,7 @@
         <v>9119</v>
       </c>
       <c r="F28">
-        <v>27357</v>
+        <v>36476</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1209,10 +1209,10 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -1221,7 +1221,7 @@
         <v>9119</v>
       </c>
       <c r="F29">
-        <v>27357</v>
+        <v>36476</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
